--- a/branches/TAP-additions/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/branches/TAP-additions/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T12:47:13+00:00</t>
+    <t>2023-03-09T12:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/TAP-additions/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/branches/TAP-additions/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T12:59:12+00:00</t>
+    <t>2023-03-09T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/TAP-additions/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/branches/TAP-additions/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:28:42+00:00</t>
+    <t>2023-03-09T14:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/TAP-additions/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/branches/TAP-additions/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T14:12:04+00:00</t>
+    <t>2023-03-09T14:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/TAP-additions/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/branches/TAP-additions/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T14:14:51+00:00</t>
+    <t>2023-03-09T14:27:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
